--- a/Infinitesimal/Final/TordoyaGerardoComision1ON.xlsx
+++ b/Infinitesimal/Final/TordoyaGerardoComision1ON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\no irma\Documents\TRABAJO_2021\UAI\AULA_VIRTUAL\1C2021\ENTREGAS_TP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\UAI-Cuatrimestre2\Infinitesimal\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD759570-D907-4222-95C0-856876A5548F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F576A51E-D7EF-4BD6-B8DF-4C19BFEC15F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{CFBB6DF2-08CB-4561-9A58-5277E9AA7A72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{CFBB6DF2-08CB-4561-9A58-5277E9AA7A72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>i = 1</t>
   </si>
@@ -99,11 +99,29 @@
   <si>
     <t>i = 6</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>derivada</t>
+  </si>
+  <si>
+    <t>x+1</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Función</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,31 +232,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -251,8 +280,31 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A368DBDA-4336-42BA-A471-0CDD4630886F}" name="NamedTable" displayName="NamedTable" ref="A10:F16" totalsRowShown="0">
+  <autoFilter ref="A10:F16" xr:uid="{B309550E-4D31-4E80-98E6-4DADDB3D8869}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0FAB8E40-26FA-424A-8468-E83A8913BAB4}" name="Iteración"/>
+    <tableColumn id="2" xr3:uid="{94DBF5FD-4ED6-45B0-9917-39697315D15C}" name="x"/>
+    <tableColumn id="3" xr3:uid="{142953AD-1022-4292-AC39-446812167E6B}" name="Función" dataDxfId="0">
+      <calculatedColumnFormula>NamedTable[[#This Row],[x]]^2-3*NamedTable[[#This Row],[x]]-4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{EFECA964-65BC-4077-8089-2B0968B9DC02}" name="derivada">
+      <calculatedColumnFormula>2*NamedTable[[#This Row],[x]]-3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{F4ECC2D2-0DD1-422D-BB06-90A79CDA193B}" name="x+1">
+      <calculatedColumnFormula>NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[derivada]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{F88DEB0C-C14F-486E-8F3C-AD22F6ED4F9A}" name="Error" dataDxfId="1">
+      <calculatedColumnFormula>(NamedTable[[#This Row],[x+1]]-NamedTable[[#This Row],[x]])/NamedTable[[#This Row],[x+1]]*100</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -548,34 +600,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0DB3A4-6AAA-4343-98E9-A1ECCEA5EEE0}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="15.7109375" customWidth="1"/>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H1" t="s">
@@ -589,153 +643,326 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
-        <f>(B2)^2-3*B2-4</f>
+      <c r="C2" s="4">
+        <f t="shared" ref="C2:C7" si="0">(B2)^2-3*B2-4</f>
         <v>36</v>
       </c>
-      <c r="D2" s="2">
-        <f>2*B2-3</f>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:D7" si="1">2*B2-3</f>
         <v>13</v>
       </c>
-      <c r="E2" s="2">
-        <f>B2-(C2/D2)</f>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:E7" si="2">B2-(C2/D2)</f>
         <v>5.2307692307692308</v>
       </c>
-      <c r="F2" s="2">
-        <f>100*(E2-B2)/E2</f>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:F7" si="3">100*(E2-B2)/E2</f>
         <v>-52.941176470588232</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <f>E2</f>
         <v>5.2307692307692308</v>
       </c>
-      <c r="C3" s="2">
-        <f>(B3)^2-3*B3-4</f>
+      <c r="C3" s="4">
+        <f t="shared" si="0"/>
         <v>7.668639053254438</v>
       </c>
-      <c r="D3" s="2">
-        <f>2*B3-3</f>
+      <c r="D3" s="4">
+        <f t="shared" si="1"/>
         <v>7.4615384615384617</v>
       </c>
-      <c r="E3" s="2">
-        <f>B3-(C3/D3)</f>
+      <c r="E3" s="4">
+        <f t="shared" si="2"/>
         <v>4.203013481363997</v>
       </c>
-      <c r="F3" s="2">
-        <f>100*(E3-B3)/E3</f>
+      <c r="F3" s="4">
+        <f t="shared" si="3"/>
         <v>-24.452830188679243</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <f>E3</f>
         <v>4.203013481363997</v>
       </c>
-      <c r="C4" s="2">
-        <f>(B4)^2-3*B4-4</f>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
         <v>1.0562818804355132</v>
       </c>
-      <c r="D4" s="2">
-        <f>2*B4-3</f>
+      <c r="D4" s="4">
+        <f t="shared" si="1"/>
         <v>5.406026962727994</v>
       </c>
-      <c r="E4" s="2">
-        <f>B4-(C4/D4)</f>
+      <c r="E4" s="4">
+        <f t="shared" si="2"/>
         <v>4.007623800972449</v>
       </c>
-      <c r="F4" s="2">
-        <f>100*(E4-B4)/E4</f>
+      <c r="F4" s="4">
+        <f t="shared" si="3"/>
         <v>-4.8754496453518605</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <f>E4</f>
         <v>4.007623800972449</v>
       </c>
-      <c r="C5" s="2">
-        <f>(B5)^2-3*B5-4</f>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
         <v>3.8177127203514516E-2</v>
       </c>
-      <c r="D5" s="2">
-        <f>2*B5-3</f>
+      <c r="D5" s="4">
+        <f t="shared" si="1"/>
         <v>5.0152476019448979</v>
       </c>
-      <c r="E5" s="2">
-        <f>B5-(C5/D5)</f>
+      <c r="E5" s="4">
+        <f t="shared" si="2"/>
         <v>4.0000115891269736</v>
       </c>
-      <c r="F5" s="2">
-        <f>100*(E5-B5)/E5</f>
+      <c r="F5" s="4">
+        <f t="shared" si="3"/>
         <v>-0.1903047447704207</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="6">
         <f>E5</f>
         <v>4.0000115891269736</v>
       </c>
-      <c r="C6" s="2">
-        <f>(B6)^2-3*B6-4</f>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
         <v>5.7945769174949646E-5</v>
       </c>
-      <c r="D6" s="2">
-        <f>2*B6-3</f>
+      <c r="D6" s="4">
+        <f t="shared" si="1"/>
         <v>5.0000231782539473</v>
       </c>
-      <c r="E6" s="2">
-        <f>B6-(C6/D6)</f>
+      <c r="E6" s="4">
+        <f t="shared" si="2"/>
         <v>4.0000000000268621</v>
       </c>
-      <c r="F6" s="2">
-        <f>100*(E6-B6)/E6</f>
+      <c r="F6" s="4">
+        <f t="shared" si="3"/>
         <v>-2.8972750278715987E-4</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <f>E6</f>
         <v>4.0000000000268621</v>
       </c>
-      <c r="C7" s="2">
-        <f>(B7)^2-3*B7-4</f>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
         <v>1.3431034062705294E-10</v>
       </c>
-      <c r="D7" s="2">
-        <f>2*B7-3</f>
+      <c r="D7" s="4">
+        <f t="shared" si="1"/>
         <v>5.0000000000537241</v>
       </c>
-      <c r="E7" s="2">
-        <f>B7-(C7/D7)</f>
+      <c r="E7" s="4">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F7" s="2">
-        <f>100*(E7-B7)/E7</f>
+      <c r="F7" s="4">
+        <f t="shared" si="3"/>
+        <v>-6.7155170313526469E-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f>NamedTable[[#This Row],[x]]^2-3*NamedTable[[#This Row],[x]]-4</f>
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <f>2*NamedTable[[#This Row],[x]]-3</f>
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <f>NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[derivada]])</f>
+        <v>5.2307692307692308</v>
+      </c>
+      <c r="F11">
+        <f>(NamedTable[[#This Row],[x+1]]-NamedTable[[#This Row],[x]])/NamedTable[[#This Row],[x+1]]*100</f>
+        <v>-52.941176470588239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f ca="1">OFFSET(NamedTable[[#This Row],[x+1]],-1,0)</f>
+        <v>5.2307692307692308</v>
+      </c>
+      <c r="C12">
+        <f ca="1">NamedTable[[#This Row],[x]]^2-3*NamedTable[[#This Row],[x]]-4</f>
+        <v>7.668639053254438</v>
+      </c>
+      <c r="D12">
+        <f ca="1">2*NamedTable[[#This Row],[x]]-3</f>
+        <v>7.4615384615384617</v>
+      </c>
+      <c r="E12">
+        <f ca="1">NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[derivada]])</f>
+        <v>4.203013481363997</v>
+      </c>
+      <c r="F12">
+        <f ca="1">(NamedTable[[#This Row],[x+1]]-NamedTable[[#This Row],[x]])/NamedTable[[#This Row],[x+1]]*100</f>
+        <v>-24.452830188679243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <f ca="1">OFFSET(NamedTable[[#This Row],[x+1]],-1,0)</f>
+        <v>4.203013481363997</v>
+      </c>
+      <c r="C13">
+        <f ca="1">NamedTable[[#This Row],[x]]^2-3*NamedTable[[#This Row],[x]]-4</f>
+        <v>1.0562818804355132</v>
+      </c>
+      <c r="D13">
+        <f ca="1">2*NamedTable[[#This Row],[x]]-3</f>
+        <v>5.406026962727994</v>
+      </c>
+      <c r="E13">
+        <f ca="1">NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[derivada]])</f>
+        <v>4.007623800972449</v>
+      </c>
+      <c r="F13">
+        <f ca="1">(NamedTable[[#This Row],[x+1]]-NamedTable[[#This Row],[x]])/NamedTable[[#This Row],[x+1]]*100</f>
+        <v>-4.8754496453518605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <f ca="1">OFFSET(NamedTable[[#This Row],[x+1]],-1,0)</f>
+        <v>4.007623800972449</v>
+      </c>
+      <c r="C14">
+        <f ca="1">NamedTable[[#This Row],[x]]^2-3*NamedTable[[#This Row],[x]]-4</f>
+        <v>3.8177127203514516E-2</v>
+      </c>
+      <c r="D14">
+        <f ca="1">2*NamedTable[[#This Row],[x]]-3</f>
+        <v>5.0152476019448979</v>
+      </c>
+      <c r="E14">
+        <f ca="1">NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[derivada]])</f>
+        <v>4.0000115891269736</v>
+      </c>
+      <c r="F14">
+        <f ca="1">(NamedTable[[#This Row],[x+1]]-NamedTable[[#This Row],[x]])/NamedTable[[#This Row],[x+1]]*100</f>
+        <v>-0.1903047447704207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <f ca="1">OFFSET(NamedTable[[#This Row],[x+1]],-1,0)</f>
+        <v>4.0000115891269736</v>
+      </c>
+      <c r="C15">
+        <f ca="1">NamedTable[[#This Row],[x]]^2-3*NamedTable[[#This Row],[x]]-4</f>
+        <v>5.7945769174949646E-5</v>
+      </c>
+      <c r="D15">
+        <f ca="1">2*NamedTable[[#This Row],[x]]-3</f>
+        <v>5.0000231782539473</v>
+      </c>
+      <c r="E15">
+        <f ca="1">NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[derivada]])</f>
+        <v>4.0000000000268621</v>
+      </c>
+      <c r="F15">
+        <f ca="1">(NamedTable[[#This Row],[x+1]]-NamedTable[[#This Row],[x]])/NamedTable[[#This Row],[x+1]]*100</f>
+        <v>-2.8972750278715987E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <f ca="1">OFFSET(NamedTable[[#This Row],[x+1]],-1,0)</f>
+        <v>4.0000000000268621</v>
+      </c>
+      <c r="C16">
+        <f ca="1">NamedTable[[#This Row],[x]]^2-3*NamedTable[[#This Row],[x]]-4</f>
+        <v>1.3431034062705294E-10</v>
+      </c>
+      <c r="D16">
+        <f ca="1">2*NamedTable[[#This Row],[x]]-3</f>
+        <v>5.0000000000537241</v>
+      </c>
+      <c r="E16">
+        <f ca="1">NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[derivada]])</f>
+        <v>4</v>
+      </c>
+      <c r="F16" s="8">
+        <f ca="1">(NamedTable[[#This Row],[x+1]]-NamedTable[[#This Row],[x]])/NamedTable[[#This Row],[x+1]]*100</f>
         <v>-6.7155170313526469E-10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Infinitesimal/Final/TordoyaGerardoComision1ON.xlsx
+++ b/Infinitesimal/Final/TordoyaGerardoComision1ON.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\UAI-Cuatrimestre2\Infinitesimal\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F576A51E-D7EF-4BD6-B8DF-4C19BFEC15F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7EF8BE-0677-4DF2-B97E-951FB1364988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{CFBB6DF2-08CB-4561-9A58-5277E9AA7A72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CFBB6DF2-08CB-4561-9A58-5277E9AA7A72}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ejemplo0" sheetId="1" r:id="rId1"/>
+    <sheet name="Ejemplo1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>i = 1</t>
   </si>
@@ -103,9 +104,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>derivada</t>
-  </si>
-  <si>
     <t>x+1</t>
   </si>
   <si>
@@ -113,6 +111,72 @@
   </si>
   <si>
     <t>Función</t>
+  </si>
+  <si>
+    <t>Derivada</t>
+  </si>
+  <si>
+    <t>FUNCIÓN:</t>
+  </si>
+  <si>
+    <t>DERIVADA:</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> – x – 1 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - 1</t>
+    </r>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>X+1</t>
+  </si>
+  <si>
+    <t>PUNTO DE PARTIDA:</t>
   </si>
 </sst>
 </file>
@@ -120,9 +184,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +208,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -153,7 +245,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -228,11 +320,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -243,6 +359,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -252,15 +371,172 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -281,25 +557,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A368DBDA-4336-42BA-A471-0CDD4630886F}" name="NamedTable" displayName="NamedTable" ref="A10:F16" totalsRowShown="0">
-  <autoFilter ref="A10:F16" xr:uid="{B309550E-4D31-4E80-98E6-4DADDB3D8869}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A368DBDA-4336-42BA-A471-0CDD4630886F}" name="NamedTable" displayName="NamedTable" ref="A12:F18" totalsRowShown="0" dataDxfId="14">
+  <autoFilter ref="A12:F18" xr:uid="{B309550E-4D31-4E80-98E6-4DADDB3D8869}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0FAB8E40-26FA-424A-8468-E83A8913BAB4}" name="Iteración"/>
-    <tableColumn id="2" xr3:uid="{94DBF5FD-4ED6-45B0-9917-39697315D15C}" name="x"/>
-    <tableColumn id="3" xr3:uid="{142953AD-1022-4292-AC39-446812167E6B}" name="Función" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{0FAB8E40-26FA-424A-8468-E83A8913BAB4}" name="Iteración" dataDxfId="13">
+      <calculatedColumnFormula>ROW()-INDEX(ROW(NamedTable[]),1,1)+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{94DBF5FD-4ED6-45B0-9917-39697315D15C}" name="x" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{142953AD-1022-4292-AC39-446812167E6B}" name="Función" dataDxfId="11">
       <calculatedColumnFormula>NamedTable[[#This Row],[x]]^2-3*NamedTable[[#This Row],[x]]-4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EFECA964-65BC-4077-8089-2B0968B9DC02}" name="derivada">
+    <tableColumn id="4" xr3:uid="{EFECA964-65BC-4077-8089-2B0968B9DC02}" name="Derivada" dataDxfId="10">
       <calculatedColumnFormula>2*NamedTable[[#This Row],[x]]-3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F4ECC2D2-0DD1-422D-BB06-90A79CDA193B}" name="x+1">
-      <calculatedColumnFormula>NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[derivada]])</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{F4ECC2D2-0DD1-422D-BB06-90A79CDA193B}" name="x+1" dataDxfId="9">
+      <calculatedColumnFormula>ROUND(NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[Derivada]]),5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F88DEB0C-C14F-486E-8F3C-AD22F6ED4F9A}" name="Error" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{F88DEB0C-C14F-486E-8F3C-AD22F6ED4F9A}" name="Error" dataDxfId="8">
       <calculatedColumnFormula>(NamedTable[[#This Row],[x+1]]-NamedTable[[#This Row],[x]])/NamedTable[[#This Row],[x+1]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F0981FE-6C95-4080-A30B-8CFFF1D13D65}" name="Ejemplo" displayName="Ejemplo" ref="B4:G9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7213B465-9BF0-4C24-A126-81E186826FEF}" name="Iteración" dataDxfId="5">
+      <calculatedColumnFormula>ROW()-INDEX(ROW(Ejemplo[]),1,1)+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{EBDF0ADE-F75A-4DF4-8DB4-5FFFC37A6CE8}" name="X" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C68FE511-E20B-425D-B47C-1C07E4039C14}" name="Función" dataDxfId="3">
+      <calculatedColumnFormula>Ejemplo[[#This Row],[X]]^3-Ejemplo[[#This Row],[X]]-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{DA8358AE-A65B-471C-B04E-6E73D69D876C}" name="Derivada" dataDxfId="2">
+      <calculatedColumnFormula>3*Ejemplo[[#This Row],[X]]^2-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{044860F9-3B7B-41EC-9565-7308C5B2CB76}" name="X+1" dataDxfId="1">
+      <calculatedColumnFormula>ROUND(Ejemplo[[#This Row],[X]]-(Ejemplo[[#This Row],[Función]]/Ejemplo[[#This Row],[Derivada]]),5)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{DA24ABF7-3ADE-4911-9045-8A6708756F5D}" name="Error" dataDxfId="0">
+      <calculatedColumnFormula>(Ejemplo[[#This Row],[X+1]]-Ejemplo[[#This Row],[X]])/Ejemplo[[#This Row],[X+1]]*100</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -600,369 +902,581 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0DB3A4-6AAA-4343-98E9-A1ECCEA5EEE0}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B4" s="5">
         <v>8</v>
       </c>
-      <c r="C2" s="4">
-        <f t="shared" ref="C2:C7" si="0">(B2)^2-3*B2-4</f>
+      <c r="C4" s="5">
+        <f t="shared" ref="C4:C9" si="0">(B4)^2-3*B4-4</f>
         <v>36</v>
       </c>
-      <c r="D2" s="4">
-        <f t="shared" ref="D2:D7" si="1">2*B2-3</f>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D9" si="1">2*B4-3</f>
         <v>13</v>
       </c>
-      <c r="E2" s="4">
-        <f t="shared" ref="E2:E7" si="2">B2-(C2/D2)</f>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E9" si="2">B4-(C4/D4)</f>
         <v>5.2307692307692308</v>
       </c>
-      <c r="F2" s="4">
-        <f t="shared" ref="F2:F7" si="3">100*(E2-B2)/E2</f>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F9" si="3">100*(E4-B4)/E4</f>
         <v>-52.941176470588232</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <f>E2</f>
+      <c r="B5" s="6">
+        <f>E4</f>
         <v>5.2307692307692308</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C5" s="5">
         <f t="shared" si="0"/>
         <v>7.668639053254438</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D5" s="5">
         <f t="shared" si="1"/>
         <v>7.4615384615384617</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E5" s="5">
         <f t="shared" si="2"/>
         <v>4.203013481363997</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F5" s="5">
         <f t="shared" si="3"/>
         <v>-24.452830188679243</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <f>E3</f>
+      <c r="B6" s="6">
+        <f>E5</f>
         <v>4.203013481363997</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>1.0562818804355132</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D6" s="5">
         <f t="shared" si="1"/>
         <v>5.406026962727994</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E6" s="5">
         <f t="shared" si="2"/>
         <v>4.007623800972449</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F6" s="5">
         <f t="shared" si="3"/>
         <v>-4.8754496453518605</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <f>E4</f>
+      <c r="B7" s="6">
+        <f>E6</f>
         <v>4.007623800972449</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C7" s="5">
         <f t="shared" si="0"/>
         <v>3.8177127203514516E-2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D7" s="5">
         <f t="shared" si="1"/>
         <v>5.0152476019448979</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E7" s="5">
         <f t="shared" si="2"/>
         <v>4.0000115891269736</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F7" s="5">
         <f t="shared" si="3"/>
         <v>-0.1903047447704207</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6">
-        <f>E5</f>
+      <c r="B8" s="7">
+        <f>E7</f>
         <v>4.0000115891269736</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C8" s="5">
         <f t="shared" si="0"/>
         <v>5.7945769174949646E-5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D8" s="5">
         <f t="shared" si="1"/>
         <v>5.0000231782539473</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E8" s="5">
         <f t="shared" si="2"/>
         <v>4.0000000000268621</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F8" s="5">
         <f t="shared" si="3"/>
         <v>-2.8972750278715987E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5">
-        <f>E6</f>
+      <c r="B9" s="6">
+        <f>E8</f>
         <v>4.0000000000268621</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C9" s="5">
         <f t="shared" si="0"/>
         <v>1.3431034062705294E-10</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D9" s="5">
         <f t="shared" si="1"/>
         <v>5.0000000000537241</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E9" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F9" s="5">
         <f t="shared" si="3"/>
         <v>-6.7155170313526469E-10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F12" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <f>ROW()-INDEX(ROW(NamedTable[]),1,1)+1</f>
         <v>1</v>
       </c>
-      <c r="B11">
+      <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C13" s="9">
         <f>NamedTable[[#This Row],[x]]^2-3*NamedTable[[#This Row],[x]]-4</f>
         <v>36</v>
       </c>
-      <c r="D11">
+      <c r="D13" s="9">
         <f>2*NamedTable[[#This Row],[x]]-3</f>
         <v>13</v>
       </c>
-      <c r="E11">
-        <f>NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[derivada]])</f>
-        <v>5.2307692307692308</v>
-      </c>
-      <c r="F11">
+      <c r="E13" s="9">
+        <f>ROUND(NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[Derivada]]),5)</f>
+        <v>5.2307699999999997</v>
+      </c>
+      <c r="F13" s="9">
         <f>(NamedTable[[#This Row],[x+1]]-NamedTable[[#This Row],[x]])/NamedTable[[#This Row],[x+1]]*100</f>
-        <v>-52.941176470588239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
+        <v>-52.941153979242074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <f>ROW()-INDEX(ROW(NamedTable[]),1,1)+1</f>
         <v>2</v>
       </c>
-      <c r="B12">
-        <f ca="1">OFFSET(NamedTable[[#This Row],[x+1]],-1,0)</f>
-        <v>5.2307692307692308</v>
-      </c>
-      <c r="C12">
-        <f ca="1">NamedTable[[#This Row],[x]]^2-3*NamedTable[[#This Row],[x]]-4</f>
-        <v>7.668639053254438</v>
-      </c>
-      <c r="D12">
-        <f ca="1">2*NamedTable[[#This Row],[x]]-3</f>
-        <v>7.4615384615384617</v>
-      </c>
-      <c r="E12">
-        <f ca="1">NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[derivada]])</f>
-        <v>4.203013481363997</v>
-      </c>
-      <c r="F12">
-        <f ca="1">(NamedTable[[#This Row],[x+1]]-NamedTable[[#This Row],[x]])/NamedTable[[#This Row],[x+1]]*100</f>
-        <v>-24.452830188679243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B14" s="9">
+        <v>5.2307699999999997</v>
+      </c>
+      <c r="C14" s="9">
+        <f>NamedTable[[#This Row],[x]]^2-3*NamedTable[[#This Row],[x]]-4</f>
+        <v>7.6686447928999968</v>
+      </c>
+      <c r="D14" s="9">
+        <f>2*NamedTable[[#This Row],[x]]-3</f>
+        <v>7.4615399999999994</v>
+      </c>
+      <c r="E14" s="9">
+        <f>ROUND(NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[Derivada]]),5)</f>
+        <v>4.2030099999999999</v>
+      </c>
+      <c r="F14" s="9">
+        <f>(NamedTable[[#This Row],[x+1]]-NamedTable[[#This Row],[x]])/NamedTable[[#This Row],[x+1]]*100</f>
+        <v>-24.452951575180641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <f>ROW()-INDEX(ROW(NamedTable[]),1,1)+1</f>
         <v>3</v>
       </c>
-      <c r="B13">
-        <f ca="1">OFFSET(NamedTable[[#This Row],[x+1]],-1,0)</f>
-        <v>4.203013481363997</v>
-      </c>
-      <c r="C13">
-        <f ca="1">NamedTable[[#This Row],[x]]^2-3*NamedTable[[#This Row],[x]]-4</f>
-        <v>1.0562818804355132</v>
-      </c>
-      <c r="D13">
-        <f ca="1">2*NamedTable[[#This Row],[x]]-3</f>
-        <v>5.406026962727994</v>
-      </c>
-      <c r="E13">
-        <f ca="1">NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[derivada]])</f>
-        <v>4.007623800972449</v>
-      </c>
-      <c r="F13">
-        <f ca="1">(NamedTable[[#This Row],[x+1]]-NamedTable[[#This Row],[x]])/NamedTable[[#This Row],[x+1]]*100</f>
-        <v>-4.8754496453518605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B15" s="9">
+        <v>4.2030099999999999</v>
+      </c>
+      <c r="C15" s="9">
+        <f>NamedTable[[#This Row],[x]]^2-3*NamedTable[[#This Row],[x]]-4</f>
+        <v>1.0562630600999974</v>
+      </c>
+      <c r="D15" s="9">
+        <f>2*NamedTable[[#This Row],[x]]-3</f>
+        <v>5.4060199999999998</v>
+      </c>
+      <c r="E15" s="9">
+        <f>ROUND(NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[Derivada]]),5)</f>
+        <v>4.0076200000000002</v>
+      </c>
+      <c r="F15" s="9">
+        <f>(NamedTable[[#This Row],[x+1]]-NamedTable[[#This Row],[x]])/NamedTable[[#This Row],[x+1]]*100</f>
+        <v>-4.8754622444243649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <f>ROW()-INDEX(ROW(NamedTable[]),1,1)+1</f>
         <v>4</v>
       </c>
-      <c r="B14">
-        <f ca="1">OFFSET(NamedTable[[#This Row],[x+1]],-1,0)</f>
-        <v>4.007623800972449</v>
-      </c>
-      <c r="C14">
-        <f ca="1">NamedTable[[#This Row],[x]]^2-3*NamedTable[[#This Row],[x]]-4</f>
-        <v>3.8177127203514516E-2</v>
-      </c>
-      <c r="D14">
-        <f ca="1">2*NamedTable[[#This Row],[x]]-3</f>
-        <v>5.0152476019448979</v>
-      </c>
-      <c r="E14">
-        <f ca="1">NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[derivada]])</f>
-        <v>4.0000115891269736</v>
-      </c>
-      <c r="F14">
-        <f ca="1">(NamedTable[[#This Row],[x+1]]-NamedTable[[#This Row],[x]])/NamedTable[[#This Row],[x+1]]*100</f>
-        <v>-0.1903047447704207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B16" s="9">
+        <v>4.0076200000000002</v>
+      </c>
+      <c r="C16" s="9">
+        <f>NamedTable[[#This Row],[x]]^2-3*NamedTable[[#This Row],[x]]-4</f>
+        <v>3.8158064400001024E-2</v>
+      </c>
+      <c r="D16" s="9">
+        <f>2*NamedTable[[#This Row],[x]]-3</f>
+        <v>5.0152400000000004</v>
+      </c>
+      <c r="E16" s="9">
+        <f>ROUND(NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[Derivada]]),5)</f>
+        <v>4.0000099999999996</v>
+      </c>
+      <c r="F16" s="9">
+        <f>(NamedTable[[#This Row],[x+1]]-NamedTable[[#This Row],[x]])/NamedTable[[#This Row],[x+1]]*100</f>
+        <v>-0.1902495243762031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <f>ROW()-INDEX(ROW(NamedTable[]),1,1)+1</f>
         <v>5</v>
       </c>
-      <c r="B15">
-        <f ca="1">OFFSET(NamedTable[[#This Row],[x+1]],-1,0)</f>
-        <v>4.0000115891269736</v>
-      </c>
-      <c r="C15">
-        <f ca="1">NamedTable[[#This Row],[x]]^2-3*NamedTable[[#This Row],[x]]-4</f>
-        <v>5.7945769174949646E-5</v>
-      </c>
-      <c r="D15">
-        <f ca="1">2*NamedTable[[#This Row],[x]]-3</f>
-        <v>5.0000231782539473</v>
-      </c>
-      <c r="E15">
-        <f ca="1">NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[derivada]])</f>
-        <v>4.0000000000268621</v>
-      </c>
-      <c r="F15">
-        <f ca="1">(NamedTable[[#This Row],[x+1]]-NamedTable[[#This Row],[x]])/NamedTable[[#This Row],[x+1]]*100</f>
-        <v>-2.8972750278715987E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B17" s="9">
+        <v>4.0000099999999996</v>
+      </c>
+      <c r="C17" s="9">
+        <f>NamedTable[[#This Row],[x]]^2-3*NamedTable[[#This Row],[x]]-4</f>
+        <v>5.0000099996339031E-5</v>
+      </c>
+      <c r="D17" s="9">
+        <f>2*NamedTable[[#This Row],[x]]-3</f>
+        <v>5.0000199999999992</v>
+      </c>
+      <c r="E17" s="9">
+        <f>ROUND(NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[Derivada]]),5)</f>
+        <v>4</v>
+      </c>
+      <c r="F17" s="9">
+        <f>(NamedTable[[#This Row],[x+1]]-NamedTable[[#This Row],[x]])/NamedTable[[#This Row],[x+1]]*100</f>
+        <v>-2.4999999999053557E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <f>ROW()-INDEX(ROW(NamedTable[]),1,1)+1</f>
         <v>6</v>
       </c>
-      <c r="B16">
-        <f ca="1">OFFSET(NamedTable[[#This Row],[x+1]],-1,0)</f>
-        <v>4.0000000000268621</v>
-      </c>
-      <c r="C16">
-        <f ca="1">NamedTable[[#This Row],[x]]^2-3*NamedTable[[#This Row],[x]]-4</f>
-        <v>1.3431034062705294E-10</v>
-      </c>
-      <c r="D16">
-        <f ca="1">2*NamedTable[[#This Row],[x]]-3</f>
-        <v>5.0000000000537241</v>
-      </c>
-      <c r="E16">
-        <f ca="1">NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[derivada]])</f>
+      <c r="B18" s="9">
         <v>4</v>
       </c>
-      <c r="F16" s="8">
-        <f ca="1">(NamedTable[[#This Row],[x+1]]-NamedTable[[#This Row],[x]])/NamedTable[[#This Row],[x+1]]*100</f>
-        <v>-6.7155170313526469E-10</v>
-      </c>
+      <c r="C18" s="9">
+        <f>NamedTable[[#This Row],[x]]^2-3*NamedTable[[#This Row],[x]]-4</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <f>2*NamedTable[[#This Row],[x]]-3</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="9">
+        <f>ROUND(NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[Derivada]]),5)</f>
+        <v>4</v>
+      </c>
+      <c r="F18" s="9">
+        <f>(NamedTable[[#This Row],[x+1]]-NamedTable[[#This Row],[x]])/NamedTable[[#This Row],[x+1]]*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D14FE1-04A7-4CFA-A3B8-436B73BDAB1E}">
+  <dimension ref="B1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="14">
+        <f>ROW()-INDEX(ROW(Ejemplo[]),1,1)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
+        <f>Ejemplo[[#This Row],[X]]^3-Ejemplo[[#This Row],[X]]-1</f>
+        <v>-1</v>
+      </c>
+      <c r="E5" s="14">
+        <f>3*Ejemplo[[#This Row],[X]]^2-1</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="14">
+        <f>ROUND(Ejemplo[[#This Row],[X]]-(Ejemplo[[#This Row],[Función]]/Ejemplo[[#This Row],[Derivada]]),5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="14">
+        <f>(Ejemplo[[#This Row],[X+1]]-Ejemplo[[#This Row],[X]])/Ejemplo[[#This Row],[X+1]]*100</f>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="14">
+        <f>ROW()-INDEX(ROW(Ejemplo[]),1,1)+1</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="14">
+        <f>Ejemplo[[#This Row],[X]]^3-Ejemplo[[#This Row],[X]]-1</f>
+        <v>0.875</v>
+      </c>
+      <c r="E6" s="14">
+        <f>3*Ejemplo[[#This Row],[X]]^2-1</f>
+        <v>5.75</v>
+      </c>
+      <c r="F6" s="14">
+        <f>ROUND(Ejemplo[[#This Row],[X]]-(Ejemplo[[#This Row],[Función]]/Ejemplo[[#This Row],[Derivada]]),5)</f>
+        <v>1.3478300000000001</v>
+      </c>
+      <c r="G6" s="14">
+        <f>(Ejemplo[[#This Row],[X+1]]-Ejemplo[[#This Row],[X]])/Ejemplo[[#This Row],[X+1]]*100</f>
+        <v>-11.289999480646662</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="14">
+        <f>ROW()-INDEX(ROW(Ejemplo[]),1,1)+1</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1.3478300000000001</v>
+      </c>
+      <c r="D7" s="14">
+        <f>Ejemplo[[#This Row],[X]]^3-Ejemplo[[#This Row],[X]]-1</f>
+        <v>0.1006995858266877</v>
+      </c>
+      <c r="E7" s="14">
+        <f>3*Ejemplo[[#This Row],[X]]^2-1</f>
+        <v>4.449937126700001</v>
+      </c>
+      <c r="F7" s="14">
+        <f>ROUND(Ejemplo[[#This Row],[X]]-(Ejemplo[[#This Row],[Función]]/Ejemplo[[#This Row],[Derivada]]),5)</f>
+        <v>1.3251999999999999</v>
+      </c>
+      <c r="G7" s="14">
+        <f>(Ejemplo[[#This Row],[X+1]]-Ejemplo[[#This Row],[X]])/Ejemplo[[#This Row],[X+1]]*100</f>
+        <v>-1.707666767280422</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
+        <f>ROW()-INDEX(ROW(Ejemplo[]),1,1)+1</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1.3251999999999999</v>
+      </c>
+      <c r="D8" s="14">
+        <f>Ejemplo[[#This Row],[X]]^3-Ejemplo[[#This Row],[X]]-1</f>
+        <v>2.0566590080000058E-3</v>
+      </c>
+      <c r="E8" s="14">
+        <f>3*Ejemplo[[#This Row],[X]]^2-1</f>
+        <v>4.2684651200000001</v>
+      </c>
+      <c r="F8" s="14">
+        <f>ROUND(Ejemplo[[#This Row],[X]]-(Ejemplo[[#This Row],[Función]]/Ejemplo[[#This Row],[Derivada]]),5)</f>
+        <v>1.3247199999999999</v>
+      </c>
+      <c r="G8" s="14">
+        <f>(Ejemplo[[#This Row],[X+1]]-Ejemplo[[#This Row],[X]])/Ejemplo[[#This Row],[X+1]]*100</f>
+        <v>-3.6234072105806203E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="14">
+        <f>ROW()-INDEX(ROW(Ejemplo[]),1,1)+1</f>
+        <v>5</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1.3247199999999999</v>
+      </c>
+      <c r="D9" s="14">
+        <f>Ejemplo[[#This Row],[X]]^3-Ejemplo[[#This Row],[X]]-1</f>
+        <v>8.7116180476076721E-6</v>
+      </c>
+      <c r="E9" s="14">
+        <f>3*Ejemplo[[#This Row],[X]]^2-1</f>
+        <v>4.2646492351999994</v>
+      </c>
+      <c r="F9" s="14">
+        <f>ROUND(Ejemplo[[#This Row],[X]]-(Ejemplo[[#This Row],[Función]]/Ejemplo[[#This Row],[Derivada]]),5)</f>
+        <v>1.3247199999999999</v>
+      </c>
+      <c r="G9" s="14">
+        <f>(Ejemplo[[#This Row],[X+1]]-Ejemplo[[#This Row],[X]])/Ejemplo[[#This Row],[X+1]]*100</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Infinitesimal/Final/TordoyaGerardoComision1ON.xlsx
+++ b/Infinitesimal/Final/TordoyaGerardoComision1ON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\UAI-Cuatrimestre2\Infinitesimal\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7EF8BE-0677-4DF2-B97E-951FB1364988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD3BF63-2E4E-4BC3-AD87-4B3245D13E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CFBB6DF2-08CB-4561-9A58-5277E9AA7A72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" activeTab="1" xr2:uid="{CFBB6DF2-08CB-4561-9A58-5277E9AA7A72}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplo0" sheetId="1" r:id="rId1"/>
@@ -122,6 +122,15 @@
     <t>DERIVADA:</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>X+1</t>
+  </si>
+  <si>
+    <t>PARTIDA:</t>
+  </si>
+  <si>
     <r>
       <t>x</t>
     </r>
@@ -130,7 +139,7 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Courier New"/>
+        <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
       <t>3</t>
@@ -139,7 +148,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Courier New"/>
+        <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
       <t xml:space="preserve"> – x – 1 </t>
@@ -154,7 +163,7 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Courier New"/>
+        <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
       <t>2</t>
@@ -163,20 +172,11 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Courier New"/>
+        <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
       <t xml:space="preserve"> - 1</t>
     </r>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>X+1</t>
-  </si>
-  <si>
-    <t>PUNTO DE PARTIDA:</t>
   </si>
 </sst>
 </file>
@@ -220,29 +220,35 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Courier New"/>
+      <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Courier New"/>
+      <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Courier New"/>
+      <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -348,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -376,33 +382,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
     <dxf>
       <font>
         <strike val="0"/>
@@ -411,12 +425,12 @@
         <u val="none"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Courier New"/>
+        <name val="JetBrains Mono"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -426,12 +440,11 @@
         <u val="none"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Courier New"/>
+        <name val="JetBrains Mono"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -441,12 +454,12 @@
         <u val="none"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Courier New"/>
+        <name val="JetBrains Mono"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -456,12 +469,18 @@
         <u val="none"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Courier New"/>
+        <name val="JetBrains Mono"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -471,12 +490,12 @@
         <u val="none"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Courier New"/>
+        <name val="JetBrains Mono"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -486,12 +505,12 @@
         <u val="none"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Courier New"/>
+        <name val="JetBrains Mono"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -501,12 +520,18 @@
         <u val="none"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Courier New"/>
+        <name val="JetBrains Mono"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -516,11 +541,22 @@
         <u val="none"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Courier New"/>
+        <name val="JetBrains Mono"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -557,23 +593,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A368DBDA-4336-42BA-A471-0CDD4630886F}" name="NamedTable" displayName="NamedTable" ref="A12:F18" totalsRowShown="0" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A368DBDA-4336-42BA-A471-0CDD4630886F}" name="NamedTable" displayName="NamedTable" ref="A12:F18" totalsRowShown="0" dataDxfId="15">
   <autoFilter ref="A12:F18" xr:uid="{B309550E-4D31-4E80-98E6-4DADDB3D8869}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0FAB8E40-26FA-424A-8468-E83A8913BAB4}" name="Iteración" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{0FAB8E40-26FA-424A-8468-E83A8913BAB4}" name="Iteración" dataDxfId="14">
       <calculatedColumnFormula>ROW()-INDEX(ROW(NamedTable[]),1,1)+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{94DBF5FD-4ED6-45B0-9917-39697315D15C}" name="x" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{142953AD-1022-4292-AC39-446812167E6B}" name="Función" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{94DBF5FD-4ED6-45B0-9917-39697315D15C}" name="x" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{142953AD-1022-4292-AC39-446812167E6B}" name="Función" dataDxfId="12">
       <calculatedColumnFormula>NamedTable[[#This Row],[x]]^2-3*NamedTable[[#This Row],[x]]-4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EFECA964-65BC-4077-8089-2B0968B9DC02}" name="Derivada" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{EFECA964-65BC-4077-8089-2B0968B9DC02}" name="Derivada" dataDxfId="11">
       <calculatedColumnFormula>2*NamedTable[[#This Row],[x]]-3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F4ECC2D2-0DD1-422D-BB06-90A79CDA193B}" name="x+1" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{F4ECC2D2-0DD1-422D-BB06-90A79CDA193B}" name="x+1" dataDxfId="10">
       <calculatedColumnFormula>ROUND(NamedTable[[#This Row],[x]]-(NamedTable[[#This Row],[Función]]/NamedTable[[#This Row],[Derivada]]),5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F88DEB0C-C14F-486E-8F3C-AD22F6ED4F9A}" name="Error" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{F88DEB0C-C14F-486E-8F3C-AD22F6ED4F9A}" name="Error" dataDxfId="9">
       <calculatedColumnFormula>(NamedTable[[#This Row],[x+1]]-NamedTable[[#This Row],[x]])/NamedTable[[#This Row],[x+1]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -582,23 +618,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F0981FE-6C95-4080-A30B-8CFFF1D13D65}" name="Ejemplo" displayName="Ejemplo" ref="B4:G9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F0981FE-6C95-4080-A30B-8CFFF1D13D65}" name="Ejemplo" displayName="Ejemplo" ref="B4:G9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7213B465-9BF0-4C24-A126-81E186826FEF}" name="Iteración" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{7213B465-9BF0-4C24-A126-81E186826FEF}" name="Iteración" dataDxfId="7">
       <calculatedColumnFormula>ROW()-INDEX(ROW(Ejemplo[]),1,1)+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EBDF0ADE-F75A-4DF4-8DB4-5FFFC37A6CE8}" name="X" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C68FE511-E20B-425D-B47C-1C07E4039C14}" name="Función" dataDxfId="3">
-      <calculatedColumnFormula>Ejemplo[[#This Row],[X]]^3-Ejemplo[[#This Row],[X]]-1</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{EBDF0ADE-F75A-4DF4-8DB4-5FFFC37A6CE8}" name="X" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{C68FE511-E20B-425D-B47C-1C07E4039C14}" name="Función" dataDxfId="5">
+      <calculatedColumnFormula>ROUND(Ejemplo[[#This Row],[X]]^3-Ejemplo[[#This Row],[X]]-1,5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DA8358AE-A65B-471C-B04E-6E73D69D876C}" name="Derivada" dataDxfId="2">
-      <calculatedColumnFormula>3*Ejemplo[[#This Row],[X]]^2-1</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{DA8358AE-A65B-471C-B04E-6E73D69D876C}" name="Derivada" dataDxfId="4">
+      <calculatedColumnFormula>ROUND(3*Ejemplo[[#This Row],[X]]^2-1,5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{044860F9-3B7B-41EC-9565-7308C5B2CB76}" name="X+1" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{044860F9-3B7B-41EC-9565-7308C5B2CB76}" name="X+1" dataDxfId="3">
       <calculatedColumnFormula>ROUND(Ejemplo[[#This Row],[X]]-(Ejemplo[[#This Row],[Función]]/Ejemplo[[#This Row],[Derivada]]),5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DA24ABF7-3ADE-4911-9045-8A6708756F5D}" name="Error" dataDxfId="0">
-      <calculatedColumnFormula>(Ejemplo[[#This Row],[X+1]]-Ejemplo[[#This Row],[X]])/Ejemplo[[#This Row],[X+1]]*100</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{DA24ABF7-3ADE-4911-9045-8A6708756F5D}" name="Error" dataDxfId="2">
+      <calculatedColumnFormula>ROUND((Ejemplo[[#This Row],[X+1]]-Ejemplo[[#This Row],[X]])/Ejemplo[[#This Row],[X+1]]*100,5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1287,196 +1323,199 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="D4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="14">
+    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="18">
         <f>ROW()-INDEX(ROW(Ejemplo[]),1,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="14">
-        <f>Ejemplo[[#This Row],[X]]^3-Ejemplo[[#This Row],[X]]-1</f>
+      <c r="D5" s="20">
+        <f>ROUND(Ejemplo[[#This Row],[X]]^3-Ejemplo[[#This Row],[X]]-1,5)</f>
         <v>-1</v>
       </c>
-      <c r="E5" s="14">
-        <f>3*Ejemplo[[#This Row],[X]]^2-1</f>
+      <c r="E5" s="20">
+        <f>ROUND(3*Ejemplo[[#This Row],[X]]^2-1,5)</f>
         <v>2</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="19">
         <f>ROUND(Ejemplo[[#This Row],[X]]-(Ejemplo[[#This Row],[Función]]/Ejemplo[[#This Row],[Derivada]]),5)</f>
         <v>1.5</v>
       </c>
-      <c r="G5" s="14">
-        <f>(Ejemplo[[#This Row],[X+1]]-Ejemplo[[#This Row],[X]])/Ejemplo[[#This Row],[X+1]]*100</f>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="14">
+      <c r="G5" s="20">
+        <f>ROUND((Ejemplo[[#This Row],[X+1]]-Ejemplo[[#This Row],[X]])/Ejemplo[[#This Row],[X+1]]*100,5)</f>
+        <v>33.333329999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
         <f>ROW()-INDEX(ROW(Ejemplo[]),1,1)+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="19">
         <v>1.5</v>
       </c>
-      <c r="D6" s="14">
-        <f>Ejemplo[[#This Row],[X]]^3-Ejemplo[[#This Row],[X]]-1</f>
+      <c r="D6" s="20">
+        <f>ROUND(Ejemplo[[#This Row],[X]]^3-Ejemplo[[#This Row],[X]]-1,5)</f>
         <v>0.875</v>
       </c>
-      <c r="E6" s="14">
-        <f>3*Ejemplo[[#This Row],[X]]^2-1</f>
+      <c r="E6" s="20">
+        <f>ROUND(3*Ejemplo[[#This Row],[X]]^2-1,5)</f>
         <v>5.75</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="19">
         <f>ROUND(Ejemplo[[#This Row],[X]]-(Ejemplo[[#This Row],[Función]]/Ejemplo[[#This Row],[Derivada]]),5)</f>
         <v>1.3478300000000001</v>
       </c>
-      <c r="G6" s="14">
-        <f>(Ejemplo[[#This Row],[X+1]]-Ejemplo[[#This Row],[X]])/Ejemplo[[#This Row],[X+1]]*100</f>
-        <v>-11.289999480646662</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
+      <c r="G6" s="20">
+        <f>ROUND((Ejemplo[[#This Row],[X+1]]-Ejemplo[[#This Row],[X]])/Ejemplo[[#This Row],[X+1]]*100,5)</f>
+        <v>-11.29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
         <f>ROW()-INDEX(ROW(Ejemplo[]),1,1)+1</f>
         <v>3</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="19">
         <v>1.3478300000000001</v>
       </c>
-      <c r="D7" s="14">
-        <f>Ejemplo[[#This Row],[X]]^3-Ejemplo[[#This Row],[X]]-1</f>
-        <v>0.1006995858266877</v>
-      </c>
-      <c r="E7" s="14">
-        <f>3*Ejemplo[[#This Row],[X]]^2-1</f>
-        <v>4.449937126700001</v>
-      </c>
-      <c r="F7" s="14">
+      <c r="D7" s="20">
+        <f>ROUND(Ejemplo[[#This Row],[X]]^3-Ejemplo[[#This Row],[X]]-1,5)</f>
+        <v>0.1007</v>
+      </c>
+      <c r="E7" s="20">
+        <f>ROUND(3*Ejemplo[[#This Row],[X]]^2-1,5)</f>
+        <v>4.4499399999999998</v>
+      </c>
+      <c r="F7" s="19">
         <f>ROUND(Ejemplo[[#This Row],[X]]-(Ejemplo[[#This Row],[Función]]/Ejemplo[[#This Row],[Derivada]]),5)</f>
         <v>1.3251999999999999</v>
       </c>
-      <c r="G7" s="14">
-        <f>(Ejemplo[[#This Row],[X+1]]-Ejemplo[[#This Row],[X]])/Ejemplo[[#This Row],[X+1]]*100</f>
-        <v>-1.707666767280422</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
+      <c r="G7" s="20">
+        <f>ROUND((Ejemplo[[#This Row],[X+1]]-Ejemplo[[#This Row],[X]])/Ejemplo[[#This Row],[X+1]]*100,5)</f>
+        <v>-1.70767</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
         <f>ROW()-INDEX(ROW(Ejemplo[]),1,1)+1</f>
         <v>4</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="19">
         <v>1.3251999999999999</v>
       </c>
-      <c r="D8" s="14">
-        <f>Ejemplo[[#This Row],[X]]^3-Ejemplo[[#This Row],[X]]-1</f>
-        <v>2.0566590080000058E-3</v>
-      </c>
-      <c r="E8" s="14">
-        <f>3*Ejemplo[[#This Row],[X]]^2-1</f>
-        <v>4.2684651200000001</v>
-      </c>
-      <c r="F8" s="14">
+      <c r="D8" s="20">
+        <f>ROUND(Ejemplo[[#This Row],[X]]^3-Ejemplo[[#This Row],[X]]-1,5)</f>
+        <v>2.0600000000000002E-3</v>
+      </c>
+      <c r="E8" s="20">
+        <f>ROUND(3*Ejemplo[[#This Row],[X]]^2-1,5)</f>
+        <v>4.2684699999999998</v>
+      </c>
+      <c r="F8" s="19">
         <f>ROUND(Ejemplo[[#This Row],[X]]-(Ejemplo[[#This Row],[Función]]/Ejemplo[[#This Row],[Derivada]]),5)</f>
         <v>1.3247199999999999</v>
       </c>
-      <c r="G8" s="14">
-        <f>(Ejemplo[[#This Row],[X+1]]-Ejemplo[[#This Row],[X]])/Ejemplo[[#This Row],[X+1]]*100</f>
-        <v>-3.6234072105806203E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
+      <c r="G8" s="20">
+        <f>ROUND((Ejemplo[[#This Row],[X+1]]-Ejemplo[[#This Row],[X]])/Ejemplo[[#This Row],[X+1]]*100,5)</f>
+        <v>-3.6229999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="18">
         <f>ROW()-INDEX(ROW(Ejemplo[]),1,1)+1</f>
         <v>5</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="19">
         <v>1.3247199999999999</v>
       </c>
-      <c r="D9" s="14">
-        <f>Ejemplo[[#This Row],[X]]^3-Ejemplo[[#This Row],[X]]-1</f>
-        <v>8.7116180476076721E-6</v>
-      </c>
-      <c r="E9" s="14">
-        <f>3*Ejemplo[[#This Row],[X]]^2-1</f>
-        <v>4.2646492351999994</v>
-      </c>
-      <c r="F9" s="14">
+      <c r="D9" s="20">
+        <f>ROUND(Ejemplo[[#This Row],[X]]^3-Ejemplo[[#This Row],[X]]-1,5)</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E9" s="20">
+        <f>ROUND(3*Ejemplo[[#This Row],[X]]^2-1,5)</f>
+        <v>4.2646499999999996</v>
+      </c>
+      <c r="F9" s="19">
         <f>ROUND(Ejemplo[[#This Row],[X]]-(Ejemplo[[#This Row],[Función]]/Ejemplo[[#This Row],[Derivada]]),5)</f>
         <v>1.3247199999999999</v>
       </c>
-      <c r="G9" s="14">
-        <f>(Ejemplo[[#This Row],[X+1]]-Ejemplo[[#This Row],[X]])/Ejemplo[[#This Row],[X+1]]*100</f>
+      <c r="G9" s="20">
+        <f>ROUND((Ejemplo[[#This Row],[X+1]]-Ejemplo[[#This Row],[X]])/Ejemplo[[#This Row],[X+1]]*100,5)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B5:G9">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>